--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F5A37B-182D-4FAD-B861-AB9649FD9F3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96E938BA-38EA-48DF-AE3C-9A3599257E7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{EF2E12B4-2331-4301-8A17-5BF174503E0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EF2E12B4-2331-4301-8A17-5BF174503E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>TOMMY CALENDINI</t>
   </si>
@@ -99,18 +99,12 @@
     <t>5h</t>
   </si>
   <si>
-    <t>En cours</t>
-  </si>
-  <si>
     <t>30min</t>
   </si>
   <si>
     <t>3h</t>
   </si>
   <si>
-    <t>2h (Toujours en cours)</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -139,6 +133,18 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnétomètre </t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h </t>
+  </si>
+  <si>
+    <t>10h (toujour en cours)</t>
   </si>
 </sst>
 </file>
@@ -505,23 +511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E701BC30-DE98-4494-B68A-FB08E7255D66}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -557,7 +563,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -578,10 +584,10 @@
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -602,10 +608,10 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -626,10 +632,10 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -639,69 +645,69 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -710,41 +716,56 @@
         <v>23</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
